--- a/02_Solartech/pricing/PRICING_RULES_CONFIRM.xlsx
+++ b/02_Solartech/pricing/PRICING_RULES_CONFIRM.xlsx
@@ -8,8 +8,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brand Codes - CONFIRM" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sub-Categories - CONFIRM" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prefix Rules - CONFIRM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Category Codes" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sub-Categories - CONFIRM" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prefix Rules - CONFIRM" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Guidelines" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,7 +21,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -29,7 +31,7 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00C00000"/>
+      <color rgb="001F4E79"/>
       <sz val="14"/>
     </font>
     <font>
@@ -39,6 +41,16 @@
       <b val="1"/>
       <color rgb="00FFFFFF"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="001F4E79"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="6">
@@ -87,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -98,6 +110,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -463,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,11 +485,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -488,7 +503,7 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>✓ = Confirmed   ⚠️ = Review   ❓ = NEED YOUR INPUT</t>
+          <t>Primary Category = main category code(s) this brand typically falls under</t>
         </is>
       </c>
     </row>
@@ -505,17 +520,22 @@
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Product Type</t>
+          <t>Primary Category</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
           <t>Status</t>
         </is>
       </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>YOUR DECISION</t>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>YOUR INPUT</t>
         </is>
       </c>
     </row>
@@ -532,15 +552,20 @@
       </c>
       <c r="C6" s="4" t="inlineStr">
         <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
           <t>Microinverters</t>
         </is>
       </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr"/>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -555,15 +580,20 @@
       </c>
       <c r="C7" s="4" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr"/>
+          <t>String &amp; Hybrid</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -578,15 +608,20 @@
       </c>
       <c r="C8" s="4" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr"/>
+          <t>String &amp; Hybrid</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -601,15 +636,20 @@
       </c>
       <c r="C9" s="4" t="inlineStr">
         <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
           <t>Hybrid Inverters</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr"/>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -624,15 +664,20 @@
       </c>
       <c r="C10" s="4" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr"/>
+          <t>String Inverters</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F10" s="4" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -647,15 +692,20 @@
       </c>
       <c r="C11" s="4" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr"/>
+          <t>String Inverters</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F11" s="4" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -670,15 +720,20 @@
       </c>
       <c r="C12" s="4" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr"/>
+          <t>String Inverters</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -693,15 +748,20 @@
       </c>
       <c r="C13" s="4" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr"/>
+          <t>String Inverters</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -716,15 +776,20 @@
       </c>
       <c r="C14" s="4" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>INV</t>
         </is>
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr"/>
+          <t>String &amp; Hybrid</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -739,15 +804,20 @@
       </c>
       <c r="C15" s="4" t="inlineStr">
         <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
           <t>Microinverters</t>
         </is>
       </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -762,15 +832,20 @@
       </c>
       <c r="C16" s="4" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>MOD</t>
         </is>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr"/>
+          <t>Mono panels</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -785,15 +860,20 @@
       </c>
       <c r="C17" s="4" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>MOD</t>
         </is>
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr"/>
+          <t>Mono panels</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -808,15 +888,20 @@
       </c>
       <c r="C18" s="4" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>MOD</t>
         </is>
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr"/>
+          <t>Mono panels</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -831,15 +916,20 @@
       </c>
       <c r="C19" s="4" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>MOD</t>
         </is>
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr"/>
+          <t>Mono panels</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F19" s="4" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -854,15 +944,20 @@
       </c>
       <c r="C20" s="4" t="inlineStr">
         <is>
-          <t>Panels</t>
+          <t>MOD</t>
         </is>
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr"/>
+          <t>Mono panels</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -877,15 +972,20 @@
       </c>
       <c r="C21" s="4" t="inlineStr">
         <is>
+          <t>MOD</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
           <t>Panels</t>
         </is>
       </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -900,15 +1000,20 @@
       </c>
       <c r="C22" s="4" t="inlineStr">
         <is>
-          <t>Batteries</t>
+          <t>ESS</t>
         </is>
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr"/>
+          <t>LFP batteries</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -923,15 +1028,20 @@
       </c>
       <c r="C23" s="4" t="inlineStr">
         <is>
-          <t>Batteries</t>
+          <t>ESS</t>
         </is>
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E23" s="4" t="inlineStr"/>
+          <t>LFP batteries</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F23" s="4" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -946,15 +1056,20 @@
       </c>
       <c r="C24" s="4" t="inlineStr">
         <is>
-          <t>Batteries/Inverters</t>
+          <t>ESS, INV</t>
         </is>
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E24" s="4" t="inlineStr"/>
+          <t>Batteries &amp; Inverters</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -969,15 +1084,20 @@
       </c>
       <c r="C25" s="4" t="inlineStr">
         <is>
+          <t>ESS</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
           <t>Batteries</t>
         </is>
       </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -992,15 +1112,20 @@
       </c>
       <c r="C26" s="4" t="inlineStr">
         <is>
-          <t>Water Systems</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E26" s="4" t="inlineStr"/>
+          <t>Water systems</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1015,15 +1140,20 @@
       </c>
       <c r="C27" s="4" t="inlineStr">
         <is>
-          <t>Components</t>
+          <t>WTS, WCN</t>
         </is>
       </c>
       <c r="D27" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr"/>
+          <t>Systems &amp; components</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -1038,15 +1168,20 @@
       </c>
       <c r="C28" s="4" t="inlineStr">
         <is>
-          <t>Filtration Media</t>
+          <t>WCN</t>
         </is>
       </c>
       <c r="D28" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E28" s="4" t="inlineStr"/>
+          <t>Filtration media</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1061,15 +1196,20 @@
       </c>
       <c r="C29" s="4" t="inlineStr">
         <is>
+          <t>MEC</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
           <t>Pumps</t>
         </is>
       </c>
-      <c r="D29" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E29" s="4" t="inlineStr"/>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1084,15 +1224,20 @@
       </c>
       <c r="C30" s="4" t="inlineStr">
         <is>
-          <t>Solar Heater</t>
+          <t>HWS</t>
         </is>
       </c>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E30" s="4" t="inlineStr"/>
+          <t>Solar water heater</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1107,15 +1252,20 @@
       </c>
       <c r="C31" s="4" t="inlineStr">
         <is>
-          <t>Electric Heater</t>
+          <t>HWS</t>
         </is>
       </c>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E31" s="4" t="inlineStr"/>
+          <t>Electric heater</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -1130,15 +1280,20 @@
       </c>
       <c r="C32" s="4" t="inlineStr">
         <is>
-          <t>Water Heater</t>
+          <t>HWS</t>
         </is>
       </c>
       <c r="D32" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E32" s="4" t="inlineStr"/>
+          <t>Water heater</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1153,15 +1308,20 @@
       </c>
       <c r="C33" s="4" t="inlineStr">
         <is>
-          <t>Water Heater</t>
+          <t>HWS</t>
         </is>
       </c>
       <c r="D33" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E33" s="4" t="inlineStr"/>
+          <t>Water heater</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -1176,15 +1336,20 @@
       </c>
       <c r="C34" s="4" t="inlineStr">
         <is>
-          <t>Heating Element</t>
+          <t>HWS</t>
         </is>
       </c>
       <c r="D34" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E34" s="4" t="inlineStr"/>
+          <t>Heating elements</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -1199,15 +1364,20 @@
       </c>
       <c r="C35" s="4" t="inlineStr">
         <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
           <t>Mounting</t>
         </is>
       </c>
-      <c r="D35" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E35" s="4" t="inlineStr"/>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -1222,15 +1392,20 @@
       </c>
       <c r="C36" s="4" t="inlineStr">
         <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
           <t>Structure</t>
         </is>
       </c>
-      <c r="D36" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E36" s="4" t="inlineStr"/>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -1245,15 +1420,20 @@
       </c>
       <c r="C37" s="4" t="inlineStr">
         <is>
-          <t>Solar Cable</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E37" s="4" t="inlineStr"/>
+          <t>Solar cable</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -1268,15 +1448,20 @@
       </c>
       <c r="C38" s="4" t="inlineStr">
         <is>
-          <t>Cable/Electrical</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="D38" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E38" s="4" t="inlineStr"/>
+          <t>Cable/electrical</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -1291,15 +1476,20 @@
       </c>
       <c r="C39" s="4" t="inlineStr">
         <is>
-          <t>Utility/Meter</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="D39" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E39" s="4" t="inlineStr"/>
+          <t>Utility meter</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1314,15 +1504,20 @@
       </c>
       <c r="C40" s="4" t="inlineStr">
         <is>
-          <t>In-house</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="D40" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E40" s="4" t="inlineStr"/>
+          <t>In-house services</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -1337,15 +1532,20 @@
       </c>
       <c r="C41" s="4" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
           <t>Various</t>
         </is>
       </c>
-      <c r="D41" s="4" t="inlineStr">
-        <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E41" s="4" t="inlineStr"/>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1360,15 +1560,20 @@
       </c>
       <c r="C42" s="4" t="inlineStr">
         <is>
-          <t>Services</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="D42" s="4" t="inlineStr">
         <is>
-          <t>✓ Confirmed</t>
-        </is>
-      </c>
-      <c r="E42" s="4" t="inlineStr"/>
+          <t>Labor services</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
@@ -1383,19 +1588,16 @@
       </c>
       <c r="C43" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D43" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D43" s="5" t="inlineStr"/>
       <c r="E43" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
@@ -1410,19 +1612,16 @@
       </c>
       <c r="C44" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D44" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D44" s="5" t="inlineStr"/>
       <c r="E44" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
@@ -1437,19 +1636,16 @@
       </c>
       <c r="C45" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D45" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D45" s="5" t="inlineStr"/>
       <c r="E45" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="inlineStr">
@@ -1464,19 +1660,16 @@
       </c>
       <c r="C46" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D46" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D46" s="5" t="inlineStr"/>
       <c r="E46" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
@@ -1491,19 +1684,16 @@
       </c>
       <c r="C47" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D47" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D47" s="5" t="inlineStr"/>
       <c r="E47" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
@@ -1518,19 +1708,16 @@
       </c>
       <c r="C48" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D48" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D48" s="5" t="inlineStr"/>
       <c r="E48" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="inlineStr">
@@ -1545,19 +1732,16 @@
       </c>
       <c r="C49" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D49" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D49" s="5" t="inlineStr"/>
       <c r="E49" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
@@ -1572,19 +1756,16 @@
       </c>
       <c r="C50" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D50" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D50" s="5" t="inlineStr"/>
       <c r="E50" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
@@ -1599,19 +1780,16 @@
       </c>
       <c r="C51" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D51" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D51" s="5" t="inlineStr"/>
       <c r="E51" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
@@ -1626,19 +1804,16 @@
       </c>
       <c r="C52" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D52" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D52" s="5" t="inlineStr"/>
       <c r="E52" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
@@ -1653,19 +1828,16 @@
       </c>
       <c r="C53" s="5" t="inlineStr">
         <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="D53" s="5" t="inlineStr">
-        <is>
-          <t>❓ CONFIRM</t>
-        </is>
-      </c>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="D53" s="5" t="inlineStr"/>
       <c r="E53" s="5" t="inlineStr">
         <is>
-          <t>What product type?</t>
-        </is>
-      </c>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="6" t="inlineStr">
@@ -1680,19 +1852,20 @@
       </c>
       <c r="C54" s="6" t="inlineStr">
         <is>
+          <t>HWS?</t>
+        </is>
+      </c>
+      <c r="D54" s="6" t="inlineStr">
+        <is>
           <t>Heater?</t>
         </is>
       </c>
-      <c r="D54" s="6" t="inlineStr">
-        <is>
-          <t>⚠️ Review</t>
-        </is>
-      </c>
       <c r="E54" s="6" t="inlineStr">
         <is>
-          <t>Is this correct?</t>
-        </is>
-      </c>
+          <t>⚠️</t>
+        </is>
+      </c>
+      <c r="F54" s="6" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="6" t="inlineStr">
@@ -1707,19 +1880,20 @@
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
+          <t>HWS?</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
           <t>Heater?</t>
         </is>
       </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>⚠️ Review</t>
-        </is>
-      </c>
       <c r="E55" s="6" t="inlineStr">
         <is>
-          <t>Is this correct?</t>
-        </is>
-      </c>
+          <t>⚠️</t>
+        </is>
+      </c>
+      <c r="F55" s="6" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="6" t="inlineStr">
@@ -1734,23 +1908,24 @@
       </c>
       <c r="C56" s="6" t="inlineStr">
         <is>
+          <t>HWS?</t>
+        </is>
+      </c>
+      <c r="D56" s="6" t="inlineStr">
+        <is>
           <t>Heater?</t>
         </is>
       </c>
-      <c r="D56" s="6" t="inlineStr">
-        <is>
-          <t>⚠️ Review</t>
-        </is>
-      </c>
       <c r="E56" s="6" t="inlineStr">
         <is>
-          <t>Is this correct?</t>
-        </is>
-      </c>
+          <t>⚠️</t>
+        </is>
+      </c>
+      <c r="F56" s="6" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1762,7 +1937,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1770,1024 +1945,343 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="28" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>SUB-CATEGORIES - NEEDS CLEANUP</t>
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Code</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Category Name</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
+        <is>
+          <t>Inverters</t>
+        </is>
+      </c>
+      <c r="C2" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>Solar inverters &amp; microinverters</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>Current data has typos &amp; duplicates. Proposed clean structure below - please confirm.</t>
+      <c r="A3" s="7" t="inlineStr">
+        <is>
+          <t>ESS</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>Energy Storage</t>
+        </is>
+      </c>
+      <c r="C3" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>Battery systems</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
+        <is>
+          <t>Balance of System</t>
+        </is>
+      </c>
+      <c r="C4" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D4" s="7" t="inlineStr">
+        <is>
+          <t>Cables, connectors, combiner boxes</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Category Code</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>Category Name</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>Sub-Category Code</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>Sub-Category Name</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>YOUR DECISION</t>
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>MOD</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>PV Modules</t>
+        </is>
+      </c>
+      <c r="C5" s="7" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D5" s="7" t="inlineStr">
+        <is>
+          <t>Solar panels</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>INV</t>
+          <t>HWS</t>
         </is>
       </c>
       <c r="B6" s="7" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>Hot Water Systems</t>
         </is>
       </c>
       <c r="C6" s="7" t="inlineStr">
         <is>
-          <t>INV-STR</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D6" s="7" t="inlineStr">
         <is>
-          <t>String Inverter</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr"/>
+          <t>Solar &amp; electric water heaters</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>INV</t>
+          <t>WTS</t>
         </is>
       </c>
       <c r="B7" s="7" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>Water Treatment</t>
         </is>
       </c>
       <c r="C7" s="7" t="inlineStr">
         <is>
-          <t>INV-HYB</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D7" s="7" t="inlineStr">
         <is>
-          <t>Hybrid Inverter</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr"/>
+          <t>Filtration &amp; purification systems</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>INV</t>
+          <t>WCN</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>Water Consumables</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr">
         <is>
-          <t>INV-MIC</t>
+          <t>W</t>
         </is>
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
-          <t>Microinverter</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr"/>
+          <t>Filters, cartridges, media</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>INV</t>
+          <t>MEC</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>Mechanical</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr">
         <is>
-          <t>INV-OFF</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D9" s="7" t="inlineStr">
         <is>
-          <t>Off-Grid Inverter</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
+          <t>Pumps, valves, piping</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>INV</t>
+          <t>ELE</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>Inverters</t>
+          <t>Electrical</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr">
         <is>
-          <t>INV-MTR</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D10" s="7" t="inlineStr">
         <is>
-          <t>Smart Energy Meter</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
+          <t>Wiring, breakers, meters</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>FAS</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>Energy Storage</t>
+          <t>Fasteners</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr">
         <is>
-          <t>ESS-LFP</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D11" s="7" t="inlineStr">
         <is>
-          <t>Lithium (LFP) Battery</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
+          <t>Nuts, bolts, mounting hardware</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>CNS</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>Energy Storage</t>
+          <t>Consumables</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr">
         <is>
-          <t>ESS-LAD</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
         <is>
-          <t>Lead-Acid Battery</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+          <t>General consumables</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>TOL</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>Energy Storage</t>
+          <t>Tools &amp; PPE</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr">
         <is>
-          <t>ESS-KIT</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D13" s="7" t="inlineStr">
         <is>
-          <t>Battery Connector Kit</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+          <t>Installation tools, safety gear</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>Balance of System</t>
+          <t>Mounting &amp; Structure</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr">
         <is>
-          <t>BOS-CMB</t>
+          <t>G</t>
         </is>
       </c>
       <c r="D14" s="7" t="inlineStr">
         <is>
-          <t>Combiner Box</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
+          <t>Rails, clamps, structures</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>SVC</t>
         </is>
       </c>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>Balance of System</t>
+          <t>Services &amp; Labor</t>
         </is>
       </c>
       <c r="C15" s="7" t="inlineStr">
         <is>
-          <t>BOS-SPD</t>
+          <t>V</t>
         </is>
       </c>
       <c r="D15" s="7" t="inlineStr">
         <is>
-          <t>Surge Protection (AC/DC)</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>Balance of System</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr">
-        <is>
-          <t>BOS-MCB</t>
-        </is>
-      </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>Circuit Breaker (AC/DC)</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="inlineStr">
-        <is>
-          <t>Balance of System</t>
-        </is>
-      </c>
-      <c r="C17" s="7" t="inlineStr">
-        <is>
-          <t>BOS-WIR</t>
-        </is>
-      </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>Wire/Cable</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="inlineStr">
-        <is>
-          <t>BOS</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>Balance of System</t>
-        </is>
-      </c>
-      <c r="C18" s="7" t="inlineStr">
-        <is>
-          <t>BOS-DON</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>Dongle/Communication</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="inlineStr">
-        <is>
-          <t>MOD</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="inlineStr">
-        <is>
-          <t>PV Modules</t>
-        </is>
-      </c>
-      <c r="C19" s="7" t="inlineStr">
-        <is>
-          <t>MOD-MON</t>
-        </is>
-      </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>Monocrystalline Panel</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="inlineStr">
-        <is>
-          <t>MOD</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>PV Modules</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr">
-        <is>
-          <t>MOD-POL</t>
-        </is>
-      </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>Polycrystalline Panel</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="inlineStr">
-        <is>
-          <t>HWS</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="inlineStr">
-        <is>
-          <t>Hot Water Systems</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr">
-        <is>
-          <t>HWS-SOL</t>
-        </is>
-      </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>Solar Water Heater</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="inlineStr">
-        <is>
-          <t>HWS</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>Hot Water Systems</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr">
-        <is>
-          <t>HWS-ELE</t>
-        </is>
-      </c>
-      <c r="D22" s="7" t="inlineStr">
-        <is>
-          <t>Electric Storage Heater</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>HWS</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="inlineStr">
-        <is>
-          <t>Hot Water Systems</t>
-        </is>
-      </c>
-      <c r="C23" s="7" t="inlineStr">
-        <is>
-          <t>HWS-COL</t>
-        </is>
-      </c>
-      <c r="D23" s="7" t="inlineStr">
-        <is>
-          <t>Collector</t>
-        </is>
-      </c>
-      <c r="E23" s="7" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>HWS</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="inlineStr">
-        <is>
-          <t>Hot Water Systems</t>
-        </is>
-      </c>
-      <c r="C24" s="7" t="inlineStr">
-        <is>
-          <t>HWS-TNK</t>
-        </is>
-      </c>
-      <c r="D24" s="7" t="inlineStr">
-        <is>
-          <t>Tank</t>
-        </is>
-      </c>
-      <c r="E24" s="7" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>HWS</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="inlineStr">
-        <is>
-          <t>Hot Water Systems</t>
-        </is>
-      </c>
-      <c r="C25" s="7" t="inlineStr">
-        <is>
-          <t>HWS-ELM</t>
-        </is>
-      </c>
-      <c r="D25" s="7" t="inlineStr">
-        <is>
-          <t>Heating Element</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="7" t="inlineStr">
-        <is>
-          <t>HWS</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="inlineStr">
-        <is>
-          <t>Hot Water Systems</t>
-        </is>
-      </c>
-      <c r="C26" s="7" t="inlineStr">
-        <is>
-          <t>HWS-THM</t>
-        </is>
-      </c>
-      <c r="D26" s="7" t="inlineStr">
-        <is>
-          <t>Thermostat</t>
-        </is>
-      </c>
-      <c r="E26" s="7" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7" t="inlineStr">
-        <is>
-          <t>WTS</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="inlineStr">
-        <is>
-          <t>Water Treatment</t>
-        </is>
-      </c>
-      <c r="C27" s="7" t="inlineStr">
-        <is>
-          <t>WTS-FLT</t>
-        </is>
-      </c>
-      <c r="D27" s="7" t="inlineStr">
-        <is>
-          <t>Water Filter</t>
-        </is>
-      </c>
-      <c r="E27" s="7" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="7" t="inlineStr">
-        <is>
-          <t>WTS</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="inlineStr">
-        <is>
-          <t>Water Treatment</t>
-        </is>
-      </c>
-      <c r="C28" s="7" t="inlineStr">
-        <is>
-          <t>WTS-SFT</t>
-        </is>
-      </c>
-      <c r="D28" s="7" t="inlineStr">
-        <is>
-          <t>Water Softener</t>
-        </is>
-      </c>
-      <c r="E28" s="7" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="7" t="inlineStr">
-        <is>
-          <t>WTS</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="inlineStr">
-        <is>
-          <t>Water Treatment</t>
-        </is>
-      </c>
-      <c r="C29" s="7" t="inlineStr">
-        <is>
-          <t>WTS-MED</t>
-        </is>
-      </c>
-      <c r="D29" s="7" t="inlineStr">
-        <is>
-          <t>Filter Media</t>
-        </is>
-      </c>
-      <c r="E29" s="7" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="7" t="inlineStr">
-        <is>
-          <t>WTS</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="inlineStr">
-        <is>
-          <t>Water Treatment</t>
-        </is>
-      </c>
-      <c r="C30" s="7" t="inlineStr">
-        <is>
-          <t>WTS-PRT</t>
-        </is>
-      </c>
-      <c r="D30" s="7" t="inlineStr">
-        <is>
-          <t>Parts/Components</t>
-        </is>
-      </c>
-      <c r="E30" s="7" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="7" t="inlineStr">
-        <is>
-          <t>WCN</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="inlineStr">
-        <is>
-          <t>Water Consumables</t>
-        </is>
-      </c>
-      <c r="C31" s="7" t="inlineStr">
-        <is>
-          <t>WCN-CRT</t>
-        </is>
-      </c>
-      <c r="D31" s="7" t="inlineStr">
-        <is>
-          <t>Cartridge</t>
-        </is>
-      </c>
-      <c r="E31" s="7" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="7" t="inlineStr">
-        <is>
-          <t>WCN</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="inlineStr">
-        <is>
-          <t>Water Consumables</t>
-        </is>
-      </c>
-      <c r="C32" s="7" t="inlineStr">
-        <is>
-          <t>WCN-MEM</t>
-        </is>
-      </c>
-      <c r="D32" s="7" t="inlineStr">
-        <is>
-          <t>Membrane</t>
-        </is>
-      </c>
-      <c r="E32" s="7" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="7" t="inlineStr">
-        <is>
-          <t>MNT</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="inlineStr">
-        <is>
-          <t>Mounting &amp; Structure</t>
-        </is>
-      </c>
-      <c r="C33" s="7" t="inlineStr">
-        <is>
-          <t>MNT-RAI</t>
-        </is>
-      </c>
-      <c r="D33" s="7" t="inlineStr">
-        <is>
-          <t>Rail/Racking</t>
-        </is>
-      </c>
-      <c r="E33" s="7" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="7" t="inlineStr">
-        <is>
-          <t>MNT</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="inlineStr">
-        <is>
-          <t>Mounting &amp; Structure</t>
-        </is>
-      </c>
-      <c r="C34" s="7" t="inlineStr">
-        <is>
-          <t>MNT-CLM</t>
-        </is>
-      </c>
-      <c r="D34" s="7" t="inlineStr">
-        <is>
-          <t>Clamp</t>
-        </is>
-      </c>
-      <c r="E34" s="7" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="7" t="inlineStr">
-        <is>
-          <t>MNT</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="inlineStr">
-        <is>
-          <t>Mounting &amp; Structure</t>
-        </is>
-      </c>
-      <c r="C35" s="7" t="inlineStr">
-        <is>
-          <t>MNT-STR</t>
-        </is>
-      </c>
-      <c r="D35" s="7" t="inlineStr">
-        <is>
-          <t>Structure</t>
-        </is>
-      </c>
-      <c r="E35" s="7" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="7" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="B36" s="7" t="inlineStr">
-        <is>
-          <t>Electrical</t>
-        </is>
-      </c>
-      <c r="C36" s="7" t="inlineStr">
-        <is>
-          <t>ELE-WIR</t>
-        </is>
-      </c>
-      <c r="D36" s="7" t="inlineStr">
-        <is>
-          <t>Wire</t>
-        </is>
-      </c>
-      <c r="E36" s="7" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="7" t="inlineStr">
-        <is>
-          <t>ELE</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="inlineStr">
-        <is>
-          <t>Electrical</t>
-        </is>
-      </c>
-      <c r="C37" s="7" t="inlineStr">
-        <is>
-          <t>ELE-CMP</t>
-        </is>
-      </c>
-      <c r="D37" s="7" t="inlineStr">
-        <is>
-          <t>Electrical Component</t>
-        </is>
-      </c>
-      <c r="E37" s="7" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="7" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="inlineStr">
-        <is>
-          <t>Mechanical</t>
-        </is>
-      </c>
-      <c r="C38" s="7" t="inlineStr">
-        <is>
-          <t>MEC-PMP</t>
-        </is>
-      </c>
-      <c r="D38" s="7" t="inlineStr">
-        <is>
-          <t>Pump</t>
-        </is>
-      </c>
-      <c r="E38" s="7" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="7" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="inlineStr">
-        <is>
-          <t>Mechanical</t>
-        </is>
-      </c>
-      <c r="C39" s="7" t="inlineStr">
-        <is>
-          <t>MEC-VLV</t>
-        </is>
-      </c>
-      <c r="D39" s="7" t="inlineStr">
-        <is>
-          <t>Valve</t>
-        </is>
-      </c>
-      <c r="E39" s="7" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="7" t="inlineStr">
-        <is>
-          <t>MEC</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="inlineStr">
-        <is>
-          <t>Mechanical</t>
-        </is>
-      </c>
-      <c r="C40" s="7" t="inlineStr">
-        <is>
-          <t>MEC-PIP</t>
-        </is>
-      </c>
-      <c r="D40" s="7" t="inlineStr">
-        <is>
-          <t>Piping (PVC/PPR/ABS)</t>
-        </is>
-      </c>
-      <c r="E40" s="7" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="7" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="inlineStr">
-        <is>
-          <t>Services &amp; Labor</t>
-        </is>
-      </c>
-      <c r="C41" s="7" t="inlineStr">
-        <is>
-          <t>SVC-INS</t>
-        </is>
-      </c>
-      <c r="D41" s="7" t="inlineStr">
-        <is>
-          <t>Installation</t>
-        </is>
-      </c>
-      <c r="E41" s="7" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="7" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="inlineStr">
-        <is>
-          <t>Services &amp; Labor</t>
-        </is>
-      </c>
-      <c r="C42" s="7" t="inlineStr">
-        <is>
-          <t>SVC-SRV</t>
-        </is>
-      </c>
-      <c r="D42" s="7" t="inlineStr">
-        <is>
-          <t>Service/Maintenance</t>
-        </is>
-      </c>
-      <c r="E42" s="7" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="7" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="inlineStr">
-        <is>
-          <t>Services &amp; Labor</t>
-        </is>
-      </c>
-      <c r="C43" s="7" t="inlineStr">
-        <is>
-          <t>SVC-INR</t>
-        </is>
-      </c>
-      <c r="D43" s="7" t="inlineStr">
-        <is>
-          <t>Insurance</t>
-        </is>
-      </c>
-      <c r="E43" s="7" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="7" t="inlineStr">
-        <is>
-          <t>SVC</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="inlineStr">
-        <is>
-          <t>Services &amp; Labor</t>
-        </is>
-      </c>
-      <c r="C44" s="7" t="inlineStr">
-        <is>
-          <t>SVC-INT</t>
-        </is>
-      </c>
-      <c r="D44" s="7" t="inlineStr">
-        <is>
-          <t>Interest/Installment</t>
-        </is>
-      </c>
-      <c r="E44" s="7" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="7" t="inlineStr">
-        <is>
-          <t>CNS</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="inlineStr">
-        <is>
-          <t>Consumables</t>
-        </is>
-      </c>
-      <c r="C45" s="7" t="inlineStr">
-        <is>
-          <t>CNS-MSC</t>
-        </is>
-      </c>
-      <c r="D45" s="7" t="inlineStr">
-        <is>
-          <t>Miscellaneous</t>
-        </is>
-      </c>
-      <c r="E45" s="7" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="7" t="inlineStr">
-        <is>
-          <t>TOL</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="inlineStr">
-        <is>
-          <t>Tools &amp; PPE</t>
-        </is>
-      </c>
-      <c r="C46" s="7" t="inlineStr">
-        <is>
-          <t>TOL-MTG</t>
-        </is>
-      </c>
-      <c r="D46" s="7" t="inlineStr">
-        <is>
-          <t>Mounting Tools</t>
-        </is>
-      </c>
-      <c r="E46" s="7" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="7" t="inlineStr">
-        <is>
-          <t>TOL</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="inlineStr">
-        <is>
-          <t>Tools &amp; PPE</t>
-        </is>
-      </c>
-      <c r="C47" s="7" t="inlineStr">
-        <is>
-          <t>TOL-PPE</t>
-        </is>
-      </c>
-      <c r="D47" s="7" t="inlineStr">
-        <is>
-          <t>PPE/Safety</t>
-        </is>
-      </c>
-      <c r="E47" s="7" t="inlineStr"/>
+          <t>Installation, maintenance, fees</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2798,7 +2292,1056 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>SUB-CATEGORIES - Proposed Structure</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Sub-Cat Code</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>Sub-Category Name</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>YOUR INPUT</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>INV-STR</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>String Inverter</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>INV-HYB</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Hybrid Inverter</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>INV-MIC</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Microinverter</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>INV-OFF</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Off-Grid Inverter</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>INV</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>INV-MTR</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Smart Energy Meter</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>ESS</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>ESS-LFP</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Lithium (LFP) Battery</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>ESS</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="inlineStr">
+        <is>
+          <t>ESS-LAD</t>
+        </is>
+      </c>
+      <c r="C10" s="4" t="inlineStr">
+        <is>
+          <t>Lead-Acid Battery</t>
+        </is>
+      </c>
+      <c r="D10" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E10" s="4" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>ESS</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>ESS-KIT</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="inlineStr">
+        <is>
+          <t>Battery Kit/Accessory</t>
+        </is>
+      </c>
+      <c r="D11" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr">
+        <is>
+          <t>BOS-CMB</t>
+        </is>
+      </c>
+      <c r="C12" s="4" t="inlineStr">
+        <is>
+          <t>Combiner Box</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr">
+        <is>
+          <t>BOS-SPD</t>
+        </is>
+      </c>
+      <c r="C13" s="4" t="inlineStr">
+        <is>
+          <t>Surge Protection</t>
+        </is>
+      </c>
+      <c r="D13" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr">
+        <is>
+          <t>BOS-MCB</t>
+        </is>
+      </c>
+      <c r="C14" s="4" t="inlineStr">
+        <is>
+          <t>Circuit Breaker</t>
+        </is>
+      </c>
+      <c r="D14" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E14" s="4" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>BOS-WIR</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>Wire/Cable</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr">
+        <is>
+          <t>BOS-CON</t>
+        </is>
+      </c>
+      <c r="C16" s="4" t="inlineStr">
+        <is>
+          <t>Connector</t>
+        </is>
+      </c>
+      <c r="D16" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E16" s="4" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr">
+        <is>
+          <t>BOS-DON</t>
+        </is>
+      </c>
+      <c r="C17" s="4" t="inlineStr">
+        <is>
+          <t>Dongle/Comms</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="4" t="inlineStr">
+        <is>
+          <t>MOD</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr">
+        <is>
+          <t>MOD-MON</t>
+        </is>
+      </c>
+      <c r="C18" s="4" t="inlineStr">
+        <is>
+          <t>Mono Panel</t>
+        </is>
+      </c>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>MOD</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>MOD-POL</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr">
+        <is>
+          <t>Poly Panel</t>
+        </is>
+      </c>
+      <c r="D19" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="4" t="inlineStr">
+        <is>
+          <t>HWS</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr">
+        <is>
+          <t>HWS-SOL</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="inlineStr">
+        <is>
+          <t>Solar Water Heater</t>
+        </is>
+      </c>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>HWS</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>HWS-ELE</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>Electric Storage Heater</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="4" t="inlineStr">
+        <is>
+          <t>HWS</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>HWS-COL</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>Collector</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>HWS</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>HWS-TNK</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr">
+        <is>
+          <t>Tank</t>
+        </is>
+      </c>
+      <c r="D23" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="4" t="inlineStr">
+        <is>
+          <t>HWS</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>HWS-ELM</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr">
+        <is>
+          <t>Heating Element</t>
+        </is>
+      </c>
+      <c r="D24" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E24" s="4" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>HWS</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>HWS-THM</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>Thermostat</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>WTS</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>WTS-FLT</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>Water Filter System</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>WTS</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>WTS-SFT</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>Water Softener</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>WTS</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>WTS-PRT</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>Parts/Components</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>WCN</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>WCN-CRT</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>Cartridge</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>WCN</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>WCN-MEM</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>Membrane</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>WCN</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>WCN-MED</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>Filter Media</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>MEC</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>MEC-PMP</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>Pump</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>MEC</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>MEC-VLV</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>Valve</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>MEC</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>MEC-PIP</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>Piping</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>ELE-WIR</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>Wire</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>ELE</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>ELE-CMP</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>Electrical Component</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>MNT-RAI</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>Rail/Racking</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>MNT-CLM</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>Clamp</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>MNT-STR</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>SVC-INS</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>Installation</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>SVC-SRV</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>Service/Maintenance</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>SVC-INR</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>Insurance</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>SVC</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>SVC-INT</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>Interest/Installment</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>CNS</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="inlineStr">
+        <is>
+          <t>CNS-MSC</t>
+        </is>
+      </c>
+      <c r="C44" s="4" t="inlineStr">
+        <is>
+          <t>Miscellaneous</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E44" s="4" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="4" t="inlineStr">
+        <is>
+          <t>TOL</t>
+        </is>
+      </c>
+      <c r="B45" s="4" t="inlineStr">
+        <is>
+          <t>TOL-GEN</t>
+        </is>
+      </c>
+      <c r="C45" s="4" t="inlineStr">
+        <is>
+          <t>General Tools</t>
+        </is>
+      </c>
+      <c r="D45" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E45" s="4" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="4" t="inlineStr">
+        <is>
+          <t>FAS</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>FAS-GEN</t>
+        </is>
+      </c>
+      <c r="C46" s="4" t="inlineStr">
+        <is>
+          <t>General Fasteners</t>
+        </is>
+      </c>
+      <c r="D46" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="E46" s="4" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2808,9 +3351,10 @@
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
     <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="12" customWidth="1" min="3" max="3"/>
-    <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2836,299 +3380,687 @@
       </c>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>YOUR DECISION</t>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>YOUR INPUT</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="4" t="inlineStr">
         <is>
           <t>COMP-</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>WCI Components</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
-        <is>
-          <t>Remap</t>
-        </is>
-      </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="C2" s="4" t="inlineStr">
+        <is>
+          <t>Remap brand</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>WCI</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F2" s="4" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="4" t="inlineStr">
         <is>
           <t>SMFG-</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Solartech Mfg</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
-        <is>
-          <t>Remap</t>
-        </is>
-      </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="C3" s="4" t="inlineStr">
+        <is>
+          <t>Remap brand</t>
+        </is>
+      </c>
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>STL</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr"/>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F3" s="4" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>D-</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Duplicates</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>Disable in Zoho</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F4" s="4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>[Numeric]</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>Kinetico products</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>Remap brand</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>KIN</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F5" s="4" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>CSMB-</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Consumables</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>Remap category</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>CNS</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>PART-</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Generic Parts</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>Keep blank</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F7" s="4" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>RAWM-</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>Raw Materials</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="inlineStr">
+        <is>
+          <t>Keep blank</t>
+        </is>
+      </c>
+      <c r="D8" s="4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E8" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F8" s="4" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>PKG-</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>Packaging</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="inlineStr">
+        <is>
+          <t>Keep blank</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="F9" s="4" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>T-</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Legacy items</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Reassign</t>
         </is>
       </c>
-      <c r="D4" s="6" t="inlineStr">
-        <is>
-          <t>(blank)</t>
-        </is>
-      </c>
-      <c r="E4" s="6" t="inlineStr">
-        <is>
-          <t>What brands are these?</t>
+      <c r="D10" s="5" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E10" s="5" t="inlineStr">
+        <is>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>What brands?</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>BCGS-</t>
+        </is>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>Consumer Services</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>Categorize</t>
+        </is>
+      </c>
+      <c r="D11" s="5" t="inlineStr">
+        <is>
+          <t>SVC?</t>
+        </is>
+      </c>
+      <c r="E11" s="5" t="inlineStr">
+        <is>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>Confirm category</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>PURC-</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>Purchased Items</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>Review</t>
+        </is>
+      </c>
+      <c r="D12" s="5" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E12" s="5" t="inlineStr">
+        <is>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>What are these?</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>OK-</t>
+        </is>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>Research</t>
+        </is>
+      </c>
+      <c r="D13" s="5" t="inlineStr">
+        <is>
+          <t>?</t>
+        </is>
+      </c>
+      <c r="E13" s="5" t="inlineStr">
+        <is>
+          <t>❓</t>
+        </is>
+      </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>What is OK-?</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="22" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="8" t="inlineStr"/>
+      <c r="B1" t="inlineStr"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="inlineStr">
+        <is>
+          <t>1. SKU FORMAT</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Standard:</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[BRAND]-[CAT]-[SPEC]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Example:</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HOY-INV-HMS2000</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="7" t="inlineStr">
-        <is>
-          <t>D-</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="inlineStr">
-        <is>
-          <t>Duplicates</t>
-        </is>
-      </c>
-      <c r="C5" s="7" t="inlineStr">
-        <is>
-          <t>Disable</t>
-        </is>
-      </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr"/>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="inlineStr">
-        <is>
-          <t>[Numeric]</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="inlineStr">
-        <is>
-          <t>Kinetico products</t>
-        </is>
-      </c>
-      <c r="C6" s="7" t="inlineStr">
-        <is>
-          <t>Remap</t>
-        </is>
-      </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>KIN</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr"/>
+      <c r="A6" s="9" t="inlineStr">
+        <is>
+          <t>2. BRAND CODE</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>BCGS-</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>Consumer Services</t>
-        </is>
-      </c>
-      <c r="C7" s="6" t="inlineStr">
-        <is>
-          <t>Categorize</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="inlineStr">
-        <is>
-          <t>SVC?</t>
-        </is>
-      </c>
-      <c r="E7" s="6" t="inlineStr">
-        <is>
-          <t>What category?</t>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Purpose:</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Identifies manufacturer</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>CSMB-</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>Consumables</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr">
-        <is>
-          <t>Remap</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>CNS</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Format:</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3-letter code</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>PURC-</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>Purchased Items</t>
-        </is>
-      </c>
-      <c r="C9" s="6" t="inlineStr">
-        <is>
-          <t>Review</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="inlineStr">
-        <is>
-          <t>(blank)</t>
-        </is>
-      </c>
-      <c r="E9" s="6" t="inlineStr">
-        <is>
-          <t>What are these?</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Note:</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Brand can span multiple categories</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="inlineStr">
-        <is>
-          <t>PART-</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>Generic Parts</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="inlineStr">
-        <is>
-          <t>Keep blank</t>
-        </is>
-      </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>(blank)</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="inlineStr">
-        <is>
-          <t>RAWM-</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>Raw Materials</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="inlineStr">
-        <is>
-          <t>Keep blank</t>
-        </is>
-      </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>(blank)</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr"/>
+      <c r="A11" s="9" t="inlineStr">
+        <is>
+          <t>3. CATEGORY</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="7" t="inlineStr">
-        <is>
-          <t>PKG-</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>Packaging</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="inlineStr">
-        <is>
-          <t>Keep blank</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>(blank)</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Purpose:</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Product classification</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>OK-</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="C13" s="6" t="inlineStr">
-        <is>
-          <t>Research</t>
-        </is>
-      </c>
-      <c r="D13" s="6" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="E13" s="6" t="inlineStr">
-        <is>
-          <t>What is OK-?</t>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Format:</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3-letter code (see Category Codes sheet)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="inlineStr">
+        <is>
+          <t>4. SUB-CATEGORY</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Format:</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>[CAT]-[SUB] e.g. INV-HYB</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr"/>
+      <c r="B17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="inlineStr">
+        <is>
+          <t>5. SKU FIELDS</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>SKU:</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Operational code - DO NOT TOUCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>SKU_Display:</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>New standardized field</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="inlineStr">
+        <is>
+          <t>6. PRICING</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Formula:</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Sell = Cost ÷ (1 - Margin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Type:</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MARGIN-based (not markup)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="inlineStr">
+        <is>
+          <t>7. MARGINS</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Services:</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>90.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Solar Residential:</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>62.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Solar Commercial:</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Solar Infrastructure:</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>37.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Water Residential:</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>50.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Water Commercial:</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>37.5%</t>
         </is>
       </c>
     </row>
